--- a/TestLoginData/ready.xlsx
+++ b/TestLoginData/ready.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>userName</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>check_gun</t>
   </si>
 </sst>
 </file>
@@ -974,7 +977,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F2:F3"/>
@@ -997,6 +1000,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1005,6 +1011,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
